--- a/2.lap-trinh-huong-doi-tuong/2.Property-and-Method.xlsx
+++ b/2.lap-trinh-huong-doi-tuong/2.Property-and-Method.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\2.lap-trinh-huong-doi-tuong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2322009-08A2-4B17-B316-87DD44838066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFAB063-3DB9-44A3-8DFC-EC8040516F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30210" yWindow="1140" windowWidth="25770" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29775" yWindow="1140" windowWidth="26205" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
+    <sheet name="Getter &amp; setter" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -170,13 +171,776 @@
       <t>c thi</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ằ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng Eclipe: Chu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i -&gt; Source -&gt; Generate Getters and Setters</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    public String getName() {</t>
+  </si>
+  <si>
+    <t>        return name;</t>
+  </si>
+  <si>
+    <t>    public void setName(String name) {</t>
+  </si>
+  <si>
+    <t>        this.name = name;</t>
+  </si>
+  <si>
+    <t>    public String getCode() {</t>
+  </si>
+  <si>
+    <t>        return code;</t>
+  </si>
+  <si>
+    <t>    public void setCode(String code) {</t>
+  </si>
+  <si>
+    <t>        this.code = code;</t>
+  </si>
+  <si>
+    <t>    public int getBirthday() {</t>
+  </si>
+  <si>
+    <t>        return birthday;</t>
+  </si>
+  <si>
+    <t>    public void setBirthday(int birthday) {</t>
+  </si>
+  <si>
+    <t>        this.birthday = birthday;</t>
+  </si>
+  <si>
+    <r>
+      <t>Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c getter tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c tính c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng do đó c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n có ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>u tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c setter dùng đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p giá tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cho thu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ộ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c tính nên không c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ầ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n thi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ậ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> nên data type c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>        studentOne.setBirthday(1994);</t>
+  </si>
+  <si>
+    <t>        studentOne.setName("John");</t>
+  </si>
+  <si>
+    <t>        studentOne.setCode("S001");</t>
+  </si>
+  <si>
+    <t>        System.out.println("Name: " + studentOne.getName());</t>
+  </si>
+  <si>
+    <t>        System.out.println("Code: " + studentOne.getCode());</t>
+  </si>
+  <si>
+    <t>        System.out.println("Year: " + studentOne.getBirthday());</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +976,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -331,12 +1109,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -392,6 +1170,231 @@
         <a:xfrm>
           <a:off x="762000" y="12887325"/>
           <a:ext cx="10250794" cy="7942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>349801</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>47963</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70956219-9A4C-E293-972D-9E6B6132308B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806450" y="3295650"/>
+          <a:ext cx="10719351" cy="6578938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>122085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B3991C0-8FE6-01D6-89A1-5042AF212FAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="10169525"/>
+          <a:ext cx="10566400" cy="6865785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>359696</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>8771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34FE05A9-49AA-7AAC-A9BE-EC00B357077A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="24384000"/>
+          <a:ext cx="18028571" cy="6031746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>206375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>563453</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>69239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC81904-3BEC-30D6-7F6A-713882C2160C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="35639375"/>
+          <a:ext cx="13577778" cy="4892064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>68549</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>123202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F816211A-F7FE-8A32-20DE-FCFCF983EF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="41319450"/>
+          <a:ext cx="10415874" cy="4980952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -734,7 +1737,7 @@
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="4"/>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="5"/>
@@ -762,48 +1765,36 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:7">
@@ -829,266 +1820,177 @@
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="4"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="4"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="G32" s="5"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="12"/>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="C35" s="12"/>
       <c r="G35" s="5"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="C36" s="12"/>
       <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="C37" s="12"/>
       <c r="G37" s="5"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="C38" s="12"/>
       <c r="G38" s="5"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="C39" s="12"/>
       <c r="G39" s="5"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="C40" s="12"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="C41" s="12"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="C43" s="12"/>
       <c r="G43" s="5"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="C45" s="12"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="C46" s="12"/>
       <c r="G46" s="5"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="C47" s="12"/>
       <c r="G47" s="5"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="C48" s="12"/>
       <c r="G48" s="5"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="C49" s="12"/>
       <c r="G49" s="5"/>
     </row>
     <row r="50" spans="2:17">
       <c r="B50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="4"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
       <c r="G51" s="5"/>
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:17">
@@ -1100,7 +2002,7 @@
       <c r="G53" s="9"/>
     </row>
     <row r="56" spans="2:17">
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="2"/>
@@ -1121,632 +2023,142 @@
     </row>
     <row r="57" spans="2:17">
       <c r="B57" s="4"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
       <c r="Q57" s="5"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="4"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
       <c r="Q58" s="5"/>
     </row>
     <row r="59" spans="2:17">
       <c r="B59" s="4"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
       <c r="Q59" s="5"/>
     </row>
     <row r="60" spans="2:17">
       <c r="B60" s="4"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
       <c r="Q60" s="5"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="4"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
       <c r="Q61" s="5"/>
     </row>
     <row r="62" spans="2:17">
       <c r="B62" s="4"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
       <c r="Q62" s="5"/>
     </row>
     <row r="63" spans="2:17">
       <c r="B63" s="4"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
       <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="2:17">
       <c r="B64" s="4"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
       <c r="Q64" s="5"/>
     </row>
     <row r="65" spans="2:17">
       <c r="B65" s="4"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
       <c r="Q65" s="5"/>
     </row>
     <row r="66" spans="2:17">
       <c r="B66" s="4"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
       <c r="Q66" s="5"/>
     </row>
     <row r="67" spans="2:17">
       <c r="B67" s="4"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
       <c r="Q67" s="5"/>
     </row>
     <row r="68" spans="2:17">
       <c r="B68" s="4"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
       <c r="Q68" s="5"/>
     </row>
     <row r="69" spans="2:17">
       <c r="B69" s="4"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
       <c r="Q69" s="5"/>
     </row>
     <row r="70" spans="2:17">
       <c r="B70" s="4"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
       <c r="Q70" s="5"/>
     </row>
     <row r="71" spans="2:17">
       <c r="B71" s="4"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
       <c r="Q71" s="5"/>
     </row>
     <row r="72" spans="2:17">
       <c r="B72" s="4"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
       <c r="Q72" s="5"/>
     </row>
     <row r="73" spans="2:17">
       <c r="B73" s="4"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
       <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="2:17">
       <c r="B74" s="4"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
       <c r="Q74" s="5"/>
     </row>
     <row r="75" spans="2:17">
       <c r="B75" s="4"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
-      <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
       <c r="Q75" s="5"/>
     </row>
     <row r="76" spans="2:17">
       <c r="B76" s="4"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
-      <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
       <c r="Q76" s="5"/>
     </row>
     <row r="77" spans="2:17">
       <c r="B77" s="4"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
       <c r="Q77" s="5"/>
     </row>
     <row r="78" spans="2:17">
       <c r="B78" s="4"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
       <c r="Q78" s="5"/>
     </row>
     <row r="79" spans="2:17">
       <c r="B79" s="4"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
       <c r="Q79" s="5"/>
     </row>
     <row r="80" spans="2:17">
       <c r="B80" s="4"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
-      <c r="M80" s="11"/>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
       <c r="Q80" s="5"/>
     </row>
     <row r="81" spans="2:17">
       <c r="B81" s="4"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
-      <c r="M81" s="11"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
       <c r="Q81" s="5"/>
     </row>
     <row r="82" spans="2:17">
       <c r="B82" s="4"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-      <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
       <c r="Q82" s="5"/>
     </row>
     <row r="83" spans="2:17">
       <c r="B83" s="4"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
       <c r="Q83" s="5"/>
     </row>
     <row r="84" spans="2:17">
       <c r="B84" s="4"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
-      <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
       <c r="Q84" s="5"/>
     </row>
     <row r="85" spans="2:17">
       <c r="B85" s="4"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
-      <c r="M85" s="11"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
       <c r="Q85" s="5"/>
     </row>
     <row r="86" spans="2:17">
       <c r="B86" s="4"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="11"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
       <c r="Q86" s="5"/>
     </row>
     <row r="87" spans="2:17">
       <c r="B87" s="4"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
-      <c r="M87" s="11"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
       <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="2:17">
       <c r="B88" s="4"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
       <c r="Q88" s="5"/>
     </row>
     <row r="89" spans="2:17">
       <c r="B89" s="4"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
       <c r="Q89" s="5"/>
     </row>
     <row r="90" spans="2:17">
       <c r="B90" s="4"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
       <c r="Q90" s="5"/>
     </row>
     <row r="91" spans="2:17">
       <c r="B91" s="4"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
       <c r="Q91" s="5"/>
     </row>
     <row r="92" spans="2:17">
@@ -1772,4 +2184,2253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702FE856-9B93-4507-B392-9B8E9D2C948C}">
+  <dimension ref="B3:R204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:18">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="4"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="4"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="4"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="4"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="5"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="4"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="5"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="4"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="5"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="4"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="5"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="4"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="5"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="4"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="5"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="4"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="5"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="4"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="5"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="4"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="5"/>
+    </row>
+    <row r="29" spans="2:18">
+      <c r="B29" s="4"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="5"/>
+    </row>
+    <row r="30" spans="2:18">
+      <c r="B30" s="4"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="5"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="B31" s="4"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="5"/>
+    </row>
+    <row r="32" spans="2:18">
+      <c r="B32" s="4"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="5"/>
+    </row>
+    <row r="33" spans="2:18">
+      <c r="B33" s="4"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="5"/>
+    </row>
+    <row r="34" spans="2:18">
+      <c r="B34" s="4"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="5"/>
+    </row>
+    <row r="35" spans="2:18">
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="5"/>
+    </row>
+    <row r="36" spans="2:18">
+      <c r="B36" s="4"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="5"/>
+    </row>
+    <row r="37" spans="2:18">
+      <c r="B37" s="4"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="5"/>
+    </row>
+    <row r="38" spans="2:18">
+      <c r="B38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="5"/>
+    </row>
+    <row r="39" spans="2:18">
+      <c r="B39" s="4"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="5"/>
+    </row>
+    <row r="40" spans="2:18">
+      <c r="B40" s="4"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="5"/>
+    </row>
+    <row r="41" spans="2:18">
+      <c r="B41" s="4"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="5"/>
+    </row>
+    <row r="42" spans="2:18">
+      <c r="B42" s="4"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="2:18">
+      <c r="B43" s="4"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="5"/>
+    </row>
+    <row r="44" spans="2:18">
+      <c r="B44" s="4"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="5"/>
+    </row>
+    <row r="45" spans="2:18">
+      <c r="B45" s="4"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="5"/>
+    </row>
+    <row r="46" spans="2:18">
+      <c r="B46" s="4"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="5"/>
+    </row>
+    <row r="47" spans="2:18">
+      <c r="B47" s="4"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="5"/>
+    </row>
+    <row r="48" spans="2:18">
+      <c r="B48" s="4"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="5"/>
+    </row>
+    <row r="49" spans="2:18">
+      <c r="B49" s="4"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="5"/>
+    </row>
+    <row r="50" spans="2:18">
+      <c r="B50" s="4"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="5"/>
+    </row>
+    <row r="51" spans="2:18">
+      <c r="B51" s="4"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="5"/>
+    </row>
+    <row r="52" spans="2:18">
+      <c r="B52" s="4"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="5"/>
+    </row>
+    <row r="53" spans="2:18">
+      <c r="B53" s="4"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="5"/>
+    </row>
+    <row r="54" spans="2:18">
+      <c r="B54" s="4"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="5"/>
+    </row>
+    <row r="55" spans="2:18">
+      <c r="B55" s="4"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="5"/>
+    </row>
+    <row r="56" spans="2:18">
+      <c r="B56" s="4"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="5"/>
+    </row>
+    <row r="57" spans="2:18">
+      <c r="B57" s="4"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="5"/>
+    </row>
+    <row r="58" spans="2:18">
+      <c r="B58" s="4"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="5"/>
+    </row>
+    <row r="59" spans="2:18">
+      <c r="B59" s="4"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="5"/>
+    </row>
+    <row r="60" spans="2:18">
+      <c r="B60" s="4"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="5"/>
+    </row>
+    <row r="61" spans="2:18">
+      <c r="B61" s="4"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="5"/>
+    </row>
+    <row r="62" spans="2:18">
+      <c r="B62" s="4"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="5"/>
+    </row>
+    <row r="63" spans="2:18">
+      <c r="B63" s="4"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="5"/>
+    </row>
+    <row r="64" spans="2:18">
+      <c r="B64" s="4"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="5"/>
+    </row>
+    <row r="65" spans="2:18">
+      <c r="B65" s="4"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="5"/>
+    </row>
+    <row r="66" spans="2:18">
+      <c r="B66" s="4"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="5"/>
+    </row>
+    <row r="67" spans="2:18">
+      <c r="B67" s="4"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="5"/>
+    </row>
+    <row r="68" spans="2:18">
+      <c r="B68" s="4"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="5"/>
+    </row>
+    <row r="69" spans="2:18">
+      <c r="B69" s="4"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="5"/>
+    </row>
+    <row r="70" spans="2:18">
+      <c r="B70" s="4"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="5"/>
+    </row>
+    <row r="71" spans="2:18">
+      <c r="B71" s="4"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="5"/>
+    </row>
+    <row r="72" spans="2:18">
+      <c r="B72" s="4"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="5"/>
+    </row>
+    <row r="73" spans="2:18">
+      <c r="B73" s="4"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="5"/>
+    </row>
+    <row r="74" spans="2:18">
+      <c r="B74" s="4"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="5"/>
+    </row>
+    <row r="75" spans="2:18">
+      <c r="B75" s="4"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="5"/>
+    </row>
+    <row r="76" spans="2:18">
+      <c r="B76" s="7"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="9"/>
+    </row>
+    <row r="77" spans="2:18">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+    </row>
+    <row r="78" spans="2:18">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="14"/>
+    </row>
+    <row r="79" spans="2:18">
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18">
+      <c r="B80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="4"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="5"/>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="15"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="5"/>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="15"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" s="15"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="15"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="15"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C98" s="15"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="15"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="15"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="15"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C102" s="15"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103" s="15"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="7"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="4"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="5"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="5"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="4"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="5"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="5"/>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="5"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="4"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="5"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="5"/>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="5"/>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+      <c r="H146" s="5"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+      <c r="H147" s="5"/>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="5"/>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="5"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="5"/>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+      <c r="H151" s="5"/>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="4"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+      <c r="H152" s="5"/>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+      <c r="H153" s="5"/>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="7"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="9"/>
+    </row>
+    <row r="180" spans="2:18">
+      <c r="B180" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="2"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="2"/>
+      <c r="Q180" s="2"/>
+      <c r="R180" s="3"/>
+    </row>
+    <row r="181" spans="2:18">
+      <c r="B181" s="4"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+      <c r="H181" s="14"/>
+      <c r="I181" s="14"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
+      <c r="L181" s="14"/>
+      <c r="M181" s="14"/>
+      <c r="N181" s="14"/>
+      <c r="O181" s="14"/>
+      <c r="P181" s="14"/>
+      <c r="Q181" s="14"/>
+      <c r="R181" s="5"/>
+    </row>
+    <row r="182" spans="2:18">
+      <c r="B182" s="4"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+      <c r="H182" s="14"/>
+      <c r="I182" s="14"/>
+      <c r="J182" s="14"/>
+      <c r="K182" s="14"/>
+      <c r="L182" s="14"/>
+      <c r="M182" s="14"/>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="Q182" s="14"/>
+      <c r="R182" s="5"/>
+    </row>
+    <row r="183" spans="2:18">
+      <c r="B183" s="4"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+      <c r="H183" s="14"/>
+      <c r="I183" s="14"/>
+      <c r="J183" s="14"/>
+      <c r="K183" s="14"/>
+      <c r="L183" s="14"/>
+      <c r="M183" s="14"/>
+      <c r="N183" s="14"/>
+      <c r="O183" s="14"/>
+      <c r="P183" s="14"/>
+      <c r="Q183" s="14"/>
+      <c r="R183" s="5"/>
+    </row>
+    <row r="184" spans="2:18">
+      <c r="B184" s="4"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+      <c r="H184" s="14"/>
+      <c r="I184" s="14"/>
+      <c r="J184" s="14"/>
+      <c r="K184" s="14"/>
+      <c r="L184" s="14"/>
+      <c r="M184" s="14"/>
+      <c r="N184" s="14"/>
+      <c r="O184" s="14"/>
+      <c r="P184" s="14"/>
+      <c r="Q184" s="14"/>
+      <c r="R184" s="5"/>
+    </row>
+    <row r="185" spans="2:18">
+      <c r="B185" s="4"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+      <c r="H185" s="14"/>
+      <c r="I185" s="14"/>
+      <c r="J185" s="14"/>
+      <c r="K185" s="14"/>
+      <c r="L185" s="14"/>
+      <c r="M185" s="14"/>
+      <c r="N185" s="14"/>
+      <c r="O185" s="14"/>
+      <c r="P185" s="14"/>
+      <c r="Q185" s="14"/>
+      <c r="R185" s="5"/>
+    </row>
+    <row r="186" spans="2:18">
+      <c r="B186" s="4"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+      <c r="H186" s="14"/>
+      <c r="I186" s="14"/>
+      <c r="J186" s="14"/>
+      <c r="K186" s="14"/>
+      <c r="L186" s="14"/>
+      <c r="M186" s="14"/>
+      <c r="N186" s="14"/>
+      <c r="O186" s="14"/>
+      <c r="P186" s="14"/>
+      <c r="Q186" s="14"/>
+      <c r="R186" s="5"/>
+    </row>
+    <row r="187" spans="2:18">
+      <c r="B187" s="4"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+      <c r="H187" s="14"/>
+      <c r="I187" s="14"/>
+      <c r="J187" s="14"/>
+      <c r="K187" s="14"/>
+      <c r="L187" s="14"/>
+      <c r="M187" s="14"/>
+      <c r="N187" s="14"/>
+      <c r="O187" s="14"/>
+      <c r="P187" s="14"/>
+      <c r="Q187" s="14"/>
+      <c r="R187" s="5"/>
+    </row>
+    <row r="188" spans="2:18">
+      <c r="B188" s="4"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+      <c r="H188" s="14"/>
+      <c r="I188" s="14"/>
+      <c r="J188" s="14"/>
+      <c r="K188" s="14"/>
+      <c r="L188" s="14"/>
+      <c r="M188" s="14"/>
+      <c r="N188" s="14"/>
+      <c r="O188" s="14"/>
+      <c r="P188" s="14"/>
+      <c r="Q188" s="14"/>
+      <c r="R188" s="5"/>
+    </row>
+    <row r="189" spans="2:18">
+      <c r="B189" s="4"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+      <c r="H189" s="14"/>
+      <c r="I189" s="14"/>
+      <c r="J189" s="14"/>
+      <c r="K189" s="14"/>
+      <c r="L189" s="14"/>
+      <c r="M189" s="14"/>
+      <c r="N189" s="14"/>
+      <c r="O189" s="14"/>
+      <c r="P189" s="14"/>
+      <c r="Q189" s="14"/>
+      <c r="R189" s="5"/>
+    </row>
+    <row r="190" spans="2:18">
+      <c r="B190" s="4"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+      <c r="H190" s="14"/>
+      <c r="I190" s="14"/>
+      <c r="J190" s="14"/>
+      <c r="K190" s="14"/>
+      <c r="L190" s="14"/>
+      <c r="M190" s="14"/>
+      <c r="N190" s="14"/>
+      <c r="O190" s="14"/>
+      <c r="P190" s="14"/>
+      <c r="Q190" s="14"/>
+      <c r="R190" s="5"/>
+    </row>
+    <row r="191" spans="2:18">
+      <c r="B191" s="4"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
+      <c r="R191" s="5"/>
+    </row>
+    <row r="192" spans="2:18">
+      <c r="B192" s="4"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="14"/>
+      <c r="L192" s="14"/>
+      <c r="M192" s="14"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="14"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="5"/>
+    </row>
+    <row r="193" spans="2:18">
+      <c r="B193" s="4"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
+      <c r="K193" s="14"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="14"/>
+      <c r="N193" s="14"/>
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
+      <c r="R193" s="5"/>
+    </row>
+    <row r="194" spans="2:18">
+      <c r="B194" s="4"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="14"/>
+      <c r="F194" s="14"/>
+      <c r="G194" s="14"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="14"/>
+      <c r="J194" s="14"/>
+      <c r="K194" s="14"/>
+      <c r="L194" s="14"/>
+      <c r="M194" s="14"/>
+      <c r="N194" s="14"/>
+      <c r="O194" s="14"/>
+      <c r="P194" s="14"/>
+      <c r="Q194" s="14"/>
+      <c r="R194" s="5"/>
+    </row>
+    <row r="195" spans="2:18">
+      <c r="B195" s="4"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="14"/>
+      <c r="J195" s="14"/>
+      <c r="K195" s="14"/>
+      <c r="L195" s="14"/>
+      <c r="M195" s="14"/>
+      <c r="N195" s="14"/>
+      <c r="O195" s="14"/>
+      <c r="P195" s="14"/>
+      <c r="Q195" s="14"/>
+      <c r="R195" s="5"/>
+    </row>
+    <row r="196" spans="2:18">
+      <c r="B196" s="4"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="14"/>
+      <c r="F196" s="14"/>
+      <c r="G196" s="14"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="14"/>
+      <c r="J196" s="14"/>
+      <c r="K196" s="14"/>
+      <c r="L196" s="14"/>
+      <c r="M196" s="14"/>
+      <c r="N196" s="14"/>
+      <c r="O196" s="14"/>
+      <c r="P196" s="14"/>
+      <c r="Q196" s="14"/>
+      <c r="R196" s="5"/>
+    </row>
+    <row r="197" spans="2:18">
+      <c r="B197" s="4"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="14"/>
+      <c r="F197" s="14"/>
+      <c r="G197" s="14"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="14"/>
+      <c r="J197" s="14"/>
+      <c r="K197" s="14"/>
+      <c r="L197" s="14"/>
+      <c r="M197" s="14"/>
+      <c r="N197" s="14"/>
+      <c r="O197" s="14"/>
+      <c r="P197" s="14"/>
+      <c r="Q197" s="14"/>
+      <c r="R197" s="5"/>
+    </row>
+    <row r="198" spans="2:18">
+      <c r="B198" s="4"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="14"/>
+      <c r="F198" s="14"/>
+      <c r="G198" s="14"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="14"/>
+      <c r="J198" s="14"/>
+      <c r="K198" s="14"/>
+      <c r="L198" s="14"/>
+      <c r="M198" s="14"/>
+      <c r="N198" s="14"/>
+      <c r="O198" s="14"/>
+      <c r="P198" s="14"/>
+      <c r="Q198" s="14"/>
+      <c r="R198" s="5"/>
+    </row>
+    <row r="199" spans="2:18">
+      <c r="B199" s="4"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="14"/>
+      <c r="F199" s="14"/>
+      <c r="G199" s="14"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="14"/>
+      <c r="J199" s="14"/>
+      <c r="K199" s="14"/>
+      <c r="L199" s="14"/>
+      <c r="M199" s="14"/>
+      <c r="N199" s="14"/>
+      <c r="O199" s="14"/>
+      <c r="P199" s="14"/>
+      <c r="Q199" s="14"/>
+      <c r="R199" s="5"/>
+    </row>
+    <row r="200" spans="2:18">
+      <c r="B200" s="4"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="14"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="14"/>
+      <c r="J200" s="14"/>
+      <c r="K200" s="14"/>
+      <c r="L200" s="14"/>
+      <c r="M200" s="14"/>
+      <c r="N200" s="14"/>
+      <c r="O200" s="14"/>
+      <c r="P200" s="14"/>
+      <c r="Q200" s="14"/>
+      <c r="R200" s="5"/>
+    </row>
+    <row r="201" spans="2:18">
+      <c r="B201" s="4"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="14"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="14"/>
+      <c r="J201" s="14"/>
+      <c r="K201" s="14"/>
+      <c r="L201" s="14"/>
+      <c r="M201" s="14"/>
+      <c r="N201" s="14"/>
+      <c r="O201" s="14"/>
+      <c r="P201" s="14"/>
+      <c r="Q201" s="14"/>
+      <c r="R201" s="5"/>
+    </row>
+    <row r="202" spans="2:18">
+      <c r="B202" s="4"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="14"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="14"/>
+      <c r="J202" s="14"/>
+      <c r="K202" s="14"/>
+      <c r="L202" s="14"/>
+      <c r="M202" s="14"/>
+      <c r="N202" s="14"/>
+      <c r="O202" s="14"/>
+      <c r="P202" s="14"/>
+      <c r="Q202" s="14"/>
+      <c r="R202" s="5"/>
+    </row>
+    <row r="203" spans="2:18">
+      <c r="B203" s="4"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14"/>
+      <c r="G203" s="14"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="14"/>
+      <c r="J203" s="14"/>
+      <c r="K203" s="14"/>
+      <c r="L203" s="14"/>
+      <c r="M203" s="14"/>
+      <c r="N203" s="14"/>
+      <c r="O203" s="14"/>
+      <c r="P203" s="14"/>
+      <c r="Q203" s="14"/>
+      <c r="R203" s="5"/>
+    </row>
+    <row r="204" spans="2:18">
+      <c r="B204" s="7"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="8"/>
+      <c r="P204" s="8"/>
+      <c r="Q204" s="8"/>
+      <c r="R204" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2.lap-trinh-huong-doi-tuong/2.Property-and-Method.xlsx
+++ b/2.lap-trinh-huong-doi-tuong/2.Property-and-Method.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\2.lap-trinh-huong-doi-tuong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFAB063-3DB9-44A3-8DFC-EC8040516F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30577B84-C691-46C3-83D5-1B1C6FDA1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="1140" windowWidth="26205" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29775" yWindow="1140" windowWidth="26205" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
     <sheet name="Getter &amp; setter" sheetId="2" r:id="rId2"/>
+    <sheet name="ShowInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -934,6 +935,34 @@
   </si>
   <si>
     <t>        System.out.println("Year: " + studentOne.getBirthday());</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>    // Show Student Info</t>
+  </si>
+  <si>
+    <t>    public void showInfo() {</t>
+  </si>
+  <si>
+    <t>        System.out.println("Student Info: ");</t>
+  </si>
+  <si>
+    <t>        System.out.println("Name \t\t:" + this.getName());</t>
+  </si>
+  <si>
+    <t>        System.out.println("Code \t\t:" + this.getCode());</t>
+  </si>
+  <si>
+    <t>        System.out.println("Birthday \t:" + this.getBirthday());</t>
+  </si>
+  <si>
+    <t>        studentOne.showInfo();</t>
+  </si>
+  <si>
+    <t>\t: Phím Tab</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1406,6 +1435,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>544652</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>69177</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FDDEA99-E94D-4694-03F8-B828B884E9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="11144250"/>
+          <a:ext cx="11584127" cy="5384127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>239893</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>37713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88DC80CC-F8A7-9CB0-C427-99DF0AE53711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="21402675"/>
+          <a:ext cx="11257143" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168275</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>478565</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>27987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EE3D5F-E93A-BD30-1351-07F20424900F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="25269825"/>
+          <a:ext cx="6882540" cy="4704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2190,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702FE856-9B93-4507-B392-9B8E9D2C948C}">
   <dimension ref="B3:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="F210" sqref="F210"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="U187" sqref="U187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2297,1161 +2463,246 @@
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="4"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="4"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
       <c r="R18" s="5"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="4"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
       <c r="R19" s="5"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="4"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
       <c r="R20" s="5"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="4"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
       <c r="R21" s="5"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="4"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
       <c r="R22" s="5"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="4"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
       <c r="R23" s="5"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="4"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
       <c r="R24" s="5"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="4"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
       <c r="R25" s="5"/>
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="4"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
       <c r="R26" s="5"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="4"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="2:18">
       <c r="B28" s="4"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="4"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="2:18">
       <c r="B30" s="4"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="2:18">
       <c r="B31" s="4"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="2:18">
       <c r="B32" s="4"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
       <c r="R32" s="5"/>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="4"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="4"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
       <c r="R34" s="5"/>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="4"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
       <c r="R35" s="5"/>
     </row>
     <row r="36" spans="2:18">
       <c r="B36" s="4"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
       <c r="R36" s="5"/>
     </row>
     <row r="37" spans="2:18">
       <c r="B37" s="4"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
       <c r="R37" s="5"/>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="4"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
       <c r="R38" s="5"/>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="4"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="2:18">
       <c r="B40" s="4"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
       <c r="R40" s="5"/>
     </row>
     <row r="41" spans="2:18">
       <c r="B41" s="4"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
       <c r="R41" s="5"/>
     </row>
     <row r="42" spans="2:18">
       <c r="B42" s="4"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
       <c r="R42" s="5"/>
     </row>
     <row r="43" spans="2:18">
       <c r="B43" s="4"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
       <c r="R43" s="5"/>
     </row>
     <row r="44" spans="2:18">
       <c r="B44" s="4"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
       <c r="R44" s="5"/>
     </row>
     <row r="45" spans="2:18">
       <c r="B45" s="4"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
       <c r="R45" s="5"/>
     </row>
     <row r="46" spans="2:18">
       <c r="B46" s="4"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
       <c r="R46" s="5"/>
     </row>
     <row r="47" spans="2:18">
       <c r="B47" s="4"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
       <c r="R47" s="5"/>
     </row>
     <row r="48" spans="2:18">
       <c r="B48" s="4"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
       <c r="R48" s="5"/>
     </row>
     <row r="49" spans="2:18">
       <c r="B49" s="4"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
       <c r="R49" s="5"/>
     </row>
     <row r="50" spans="2:18">
       <c r="B50" s="4"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
       <c r="R50" s="5"/>
     </row>
     <row r="51" spans="2:18">
       <c r="B51" s="4"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="2:18">
       <c r="B52" s="4"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
       <c r="R52" s="5"/>
     </row>
     <row r="53" spans="2:18">
       <c r="B53" s="4"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
       <c r="R53" s="5"/>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="4"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
       <c r="R54" s="5"/>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="4"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
       <c r="R55" s="5"/>
     </row>
     <row r="56" spans="2:18">
       <c r="B56" s="4"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
       <c r="R56" s="5"/>
     </row>
     <row r="57" spans="2:18">
       <c r="B57" s="4"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
-      <c r="Q57" s="14"/>
       <c r="R57" s="5"/>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="4"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="14"/>
       <c r="R58" s="5"/>
     </row>
     <row r="59" spans="2:18">
       <c r="B59" s="4"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="14"/>
       <c r="R59" s="5"/>
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="4"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="14"/>
       <c r="R60" s="5"/>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="4"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="14"/>
       <c r="R61" s="5"/>
     </row>
     <row r="62" spans="2:18">
       <c r="B62" s="4"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
       <c r="R62" s="5"/>
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="4"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="14"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="2:18">
       <c r="B64" s="4"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="14"/>
       <c r="R64" s="5"/>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="4"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
       <c r="R65" s="5"/>
     </row>
     <row r="66" spans="2:18">
       <c r="B66" s="4"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
-      <c r="Q66" s="14"/>
       <c r="R66" s="5"/>
     </row>
     <row r="67" spans="2:18">
       <c r="B67" s="4"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="14"/>
-      <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="14"/>
       <c r="R67" s="5"/>
     </row>
     <row r="68" spans="2:18">
       <c r="B68" s="4"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="14"/>
       <c r="R68" s="5"/>
     </row>
     <row r="69" spans="2:18">
       <c r="B69" s="4"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
       <c r="R69" s="5"/>
     </row>
     <row r="70" spans="2:18">
       <c r="B70" s="4"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
       <c r="R70" s="5"/>
     </row>
     <row r="71" spans="2:18">
       <c r="B71" s="4"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="14"/>
-      <c r="O71" s="14"/>
-      <c r="P71" s="14"/>
-      <c r="Q71" s="14"/>
       <c r="R71" s="5"/>
     </row>
     <row r="72" spans="2:18">
       <c r="B72" s="4"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="14"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="14"/>
       <c r="R72" s="5"/>
     </row>
     <row r="73" spans="2:18">
       <c r="B73" s="4"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="14"/>
       <c r="R73" s="5"/>
     </row>
     <row r="74" spans="2:18">
       <c r="B74" s="4"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="14"/>
       <c r="R74" s="5"/>
     </row>
     <row r="75" spans="2:18">
       <c r="B75" s="4"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="14"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
       <c r="R75" s="5"/>
     </row>
     <row r="76" spans="2:18">
@@ -3473,44 +2724,6 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="9"/>
     </row>
-    <row r="77" spans="2:18">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="14"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="14"/>
-      <c r="R77" s="14"/>
-    </row>
-    <row r="78" spans="2:18">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="14"/>
-      <c r="R78" s="14"/>
-    </row>
     <row r="79" spans="2:18">
       <c r="B79" t="s">
         <v>9</v>
@@ -3527,54 +2740,37 @@
     </row>
     <row r="81" spans="2:8">
       <c r="B81" s="4"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
       <c r="F81" s="5"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
       <c r="F82" s="5"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
       <c r="F83" s="5"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
       <c r="F84" s="5"/>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
       <c r="F85" s="5"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="C86" s="12"/>
       <c r="F86" s="5"/>
       <c r="G86" t="s">
         <v>7</v>
@@ -3587,27 +2783,21 @@
       <c r="B87" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C87" s="15"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
+      <c r="C87" s="12"/>
       <c r="F87" s="5"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="15"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
+      <c r="C88" s="12"/>
       <c r="F88" s="5"/>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
+      <c r="C89" s="12"/>
       <c r="F89" s="5"/>
       <c r="G89" t="s">
         <v>7</v>
@@ -3620,135 +2810,104 @@
       <c r="B90" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="15"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
+      <c r="C90" s="12"/>
       <c r="F90" s="5"/>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C91" s="15"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
+      <c r="C91" s="12"/>
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
+      <c r="C92" s="12"/>
       <c r="F92" s="5"/>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C93" s="15"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="C93" s="12"/>
       <c r="F93" s="5"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="15"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
+      <c r="C94" s="12"/>
       <c r="F94" s="5"/>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
+      <c r="C95" s="12"/>
       <c r="F95" s="5"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="15"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
+      <c r="C96" s="12"/>
       <c r="F96" s="5"/>
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="15"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
+      <c r="C97" s="12"/>
       <c r="F97" s="5"/>
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
+      <c r="C98" s="12"/>
       <c r="F98" s="5"/>
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C99" s="15"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
+      <c r="C99" s="12"/>
       <c r="F99" s="5"/>
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C100" s="15"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
+      <c r="C100" s="12"/>
       <c r="F100" s="5"/>
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
+      <c r="C101" s="12"/>
       <c r="F101" s="5"/>
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C102" s="15"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
+      <c r="C102" s="12"/>
       <c r="F102" s="5"/>
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C103" s="15"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
+      <c r="C103" s="12"/>
       <c r="F103" s="5"/>
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
       <c r="F104" s="5"/>
     </row>
     <row r="105" spans="2:6">
@@ -3776,170 +2935,111 @@
     </row>
     <row r="138" spans="2:8">
       <c r="B138" s="4"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
       <c r="H138" s="5"/>
     </row>
     <row r="139" spans="2:8">
       <c r="B139" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
       <c r="H139" s="5"/>
     </row>
     <row r="140" spans="2:8">
       <c r="B140" s="4"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
       <c r="H140" s="5"/>
     </row>
     <row r="141" spans="2:8">
       <c r="B141" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="14"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
       <c r="H141" s="5"/>
     </row>
     <row r="142" spans="2:8">
       <c r="B142" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="2:8">
       <c r="B143" s="4"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
       <c r="H143" s="5"/>
     </row>
     <row r="144" spans="2:8">
       <c r="B144" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
       <c r="H144" s="5"/>
     </row>
     <row r="145" spans="2:8">
       <c r="B145" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C145" s="15"/>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
       <c r="H145" s="5"/>
     </row>
     <row r="146" spans="2:8">
       <c r="B146" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="15"/>
-      <c r="E146" s="15"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
       <c r="H146" s="5"/>
     </row>
     <row r="147" spans="2:8">
       <c r="B147" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C147" s="15"/>
-      <c r="D147" s="15"/>
-      <c r="E147" s="15"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="2:8">
       <c r="B148" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C148" s="15"/>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
       <c r="H148" s="5"/>
     </row>
     <row r="149" spans="2:8">
       <c r="B149" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
       <c r="H149" s="5"/>
     </row>
     <row r="150" spans="2:8">
       <c r="B150" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
       <c r="H150" s="5"/>
     </row>
     <row r="151" spans="2:8">
       <c r="B151" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C151" s="14"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
       <c r="H151" s="5"/>
     </row>
     <row r="152" spans="2:8">
       <c r="B152" s="4"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
       <c r="H152" s="5"/>
     </row>
     <row r="153" spans="2:8">
       <c r="B153" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C153" s="14"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
       <c r="H153" s="5"/>
     </row>
     <row r="154" spans="2:8">
@@ -3974,439 +3074,94 @@
     </row>
     <row r="181" spans="2:18">
       <c r="B181" s="4"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="14"/>
-      <c r="K181" s="14"/>
-      <c r="L181" s="14"/>
-      <c r="M181" s="14"/>
-      <c r="N181" s="14"/>
-      <c r="O181" s="14"/>
-      <c r="P181" s="14"/>
-      <c r="Q181" s="14"/>
       <c r="R181" s="5"/>
     </row>
     <row r="182" spans="2:18">
       <c r="B182" s="4"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="14"/>
-      <c r="K182" s="14"/>
-      <c r="L182" s="14"/>
-      <c r="M182" s="14"/>
-      <c r="N182" s="14"/>
-      <c r="O182" s="14"/>
-      <c r="P182" s="14"/>
-      <c r="Q182" s="14"/>
       <c r="R182" s="5"/>
     </row>
     <row r="183" spans="2:18">
       <c r="B183" s="4"/>
-      <c r="C183" s="14"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="14"/>
-      <c r="K183" s="14"/>
-      <c r="L183" s="14"/>
-      <c r="M183" s="14"/>
-      <c r="N183" s="14"/>
-      <c r="O183" s="14"/>
-      <c r="P183" s="14"/>
-      <c r="Q183" s="14"/>
       <c r="R183" s="5"/>
     </row>
     <row r="184" spans="2:18">
       <c r="B184" s="4"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="14"/>
-      <c r="K184" s="14"/>
-      <c r="L184" s="14"/>
-      <c r="M184" s="14"/>
-      <c r="N184" s="14"/>
-      <c r="O184" s="14"/>
-      <c r="P184" s="14"/>
-      <c r="Q184" s="14"/>
       <c r="R184" s="5"/>
     </row>
     <row r="185" spans="2:18">
       <c r="B185" s="4"/>
-      <c r="C185" s="14"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="14"/>
-      <c r="K185" s="14"/>
-      <c r="L185" s="14"/>
-      <c r="M185" s="14"/>
-      <c r="N185" s="14"/>
-      <c r="O185" s="14"/>
-      <c r="P185" s="14"/>
-      <c r="Q185" s="14"/>
       <c r="R185" s="5"/>
     </row>
     <row r="186" spans="2:18">
       <c r="B186" s="4"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="14"/>
-      <c r="K186" s="14"/>
-      <c r="L186" s="14"/>
-      <c r="M186" s="14"/>
-      <c r="N186" s="14"/>
-      <c r="O186" s="14"/>
-      <c r="P186" s="14"/>
-      <c r="Q186" s="14"/>
       <c r="R186" s="5"/>
     </row>
     <row r="187" spans="2:18">
       <c r="B187" s="4"/>
-      <c r="C187" s="14"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="14"/>
-      <c r="K187" s="14"/>
-      <c r="L187" s="14"/>
-      <c r="M187" s="14"/>
-      <c r="N187" s="14"/>
-      <c r="O187" s="14"/>
-      <c r="P187" s="14"/>
-      <c r="Q187" s="14"/>
       <c r="R187" s="5"/>
     </row>
     <row r="188" spans="2:18">
       <c r="B188" s="4"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="14"/>
-      <c r="K188" s="14"/>
-      <c r="L188" s="14"/>
-      <c r="M188" s="14"/>
-      <c r="N188" s="14"/>
-      <c r="O188" s="14"/>
-      <c r="P188" s="14"/>
-      <c r="Q188" s="14"/>
       <c r="R188" s="5"/>
     </row>
     <row r="189" spans="2:18">
       <c r="B189" s="4"/>
-      <c r="C189" s="14"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="14"/>
-      <c r="K189" s="14"/>
-      <c r="L189" s="14"/>
-      <c r="M189" s="14"/>
-      <c r="N189" s="14"/>
-      <c r="O189" s="14"/>
-      <c r="P189" s="14"/>
-      <c r="Q189" s="14"/>
       <c r="R189" s="5"/>
     </row>
     <row r="190" spans="2:18">
       <c r="B190" s="4"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="14"/>
-      <c r="K190" s="14"/>
-      <c r="L190" s="14"/>
-      <c r="M190" s="14"/>
-      <c r="N190" s="14"/>
-      <c r="O190" s="14"/>
-      <c r="P190" s="14"/>
-      <c r="Q190" s="14"/>
       <c r="R190" s="5"/>
     </row>
     <row r="191" spans="2:18">
       <c r="B191" s="4"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14"/>
-      <c r="M191" s="14"/>
-      <c r="N191" s="14"/>
-      <c r="O191" s="14"/>
-      <c r="P191" s="14"/>
-      <c r="Q191" s="14"/>
       <c r="R191" s="5"/>
     </row>
     <row r="192" spans="2:18">
       <c r="B192" s="4"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="14"/>
-      <c r="K192" s="14"/>
-      <c r="L192" s="14"/>
-      <c r="M192" s="14"/>
-      <c r="N192" s="14"/>
-      <c r="O192" s="14"/>
-      <c r="P192" s="14"/>
-      <c r="Q192" s="14"/>
       <c r="R192" s="5"/>
     </row>
     <row r="193" spans="2:18">
       <c r="B193" s="4"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="14"/>
-      <c r="F193" s="14"/>
-      <c r="G193" s="14"/>
-      <c r="H193" s="14"/>
-      <c r="I193" s="14"/>
-      <c r="J193" s="14"/>
-      <c r="K193" s="14"/>
-      <c r="L193" s="14"/>
-      <c r="M193" s="14"/>
-      <c r="N193" s="14"/>
-      <c r="O193" s="14"/>
-      <c r="P193" s="14"/>
-      <c r="Q193" s="14"/>
       <c r="R193" s="5"/>
     </row>
     <row r="194" spans="2:18">
       <c r="B194" s="4"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="14"/>
-      <c r="F194" s="14"/>
-      <c r="G194" s="14"/>
-      <c r="H194" s="14"/>
-      <c r="I194" s="14"/>
-      <c r="J194" s="14"/>
-      <c r="K194" s="14"/>
-      <c r="L194" s="14"/>
-      <c r="M194" s="14"/>
-      <c r="N194" s="14"/>
-      <c r="O194" s="14"/>
-      <c r="P194" s="14"/>
-      <c r="Q194" s="14"/>
       <c r="R194" s="5"/>
     </row>
     <row r="195" spans="2:18">
       <c r="B195" s="4"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="14"/>
-      <c r="F195" s="14"/>
-      <c r="G195" s="14"/>
-      <c r="H195" s="14"/>
-      <c r="I195" s="14"/>
-      <c r="J195" s="14"/>
-      <c r="K195" s="14"/>
-      <c r="L195" s="14"/>
-      <c r="M195" s="14"/>
-      <c r="N195" s="14"/>
-      <c r="O195" s="14"/>
-      <c r="P195" s="14"/>
-      <c r="Q195" s="14"/>
       <c r="R195" s="5"/>
     </row>
     <row r="196" spans="2:18">
       <c r="B196" s="4"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="14"/>
-      <c r="F196" s="14"/>
-      <c r="G196" s="14"/>
-      <c r="H196" s="14"/>
-      <c r="I196" s="14"/>
-      <c r="J196" s="14"/>
-      <c r="K196" s="14"/>
-      <c r="L196" s="14"/>
-      <c r="M196" s="14"/>
-      <c r="N196" s="14"/>
-      <c r="O196" s="14"/>
-      <c r="P196" s="14"/>
-      <c r="Q196" s="14"/>
       <c r="R196" s="5"/>
     </row>
     <row r="197" spans="2:18">
       <c r="B197" s="4"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="14"/>
-      <c r="F197" s="14"/>
-      <c r="G197" s="14"/>
-      <c r="H197" s="14"/>
-      <c r="I197" s="14"/>
-      <c r="J197" s="14"/>
-      <c r="K197" s="14"/>
-      <c r="L197" s="14"/>
-      <c r="M197" s="14"/>
-      <c r="N197" s="14"/>
-      <c r="O197" s="14"/>
-      <c r="P197" s="14"/>
-      <c r="Q197" s="14"/>
       <c r="R197" s="5"/>
     </row>
     <row r="198" spans="2:18">
       <c r="B198" s="4"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="14"/>
-      <c r="F198" s="14"/>
-      <c r="G198" s="14"/>
-      <c r="H198" s="14"/>
-      <c r="I198" s="14"/>
-      <c r="J198" s="14"/>
-      <c r="K198" s="14"/>
-      <c r="L198" s="14"/>
-      <c r="M198" s="14"/>
-      <c r="N198" s="14"/>
-      <c r="O198" s="14"/>
-      <c r="P198" s="14"/>
-      <c r="Q198" s="14"/>
       <c r="R198" s="5"/>
     </row>
     <row r="199" spans="2:18">
       <c r="B199" s="4"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="14"/>
-      <c r="F199" s="14"/>
-      <c r="G199" s="14"/>
-      <c r="H199" s="14"/>
-      <c r="I199" s="14"/>
-      <c r="J199" s="14"/>
-      <c r="K199" s="14"/>
-      <c r="L199" s="14"/>
-      <c r="M199" s="14"/>
-      <c r="N199" s="14"/>
-      <c r="O199" s="14"/>
-      <c r="P199" s="14"/>
-      <c r="Q199" s="14"/>
       <c r="R199" s="5"/>
     </row>
     <row r="200" spans="2:18">
       <c r="B200" s="4"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="14"/>
-      <c r="H200" s="14"/>
-      <c r="I200" s="14"/>
-      <c r="J200" s="14"/>
-      <c r="K200" s="14"/>
-      <c r="L200" s="14"/>
-      <c r="M200" s="14"/>
-      <c r="N200" s="14"/>
-      <c r="O200" s="14"/>
-      <c r="P200" s="14"/>
-      <c r="Q200" s="14"/>
       <c r="R200" s="5"/>
     </row>
     <row r="201" spans="2:18">
       <c r="B201" s="4"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="14"/>
-      <c r="F201" s="14"/>
-      <c r="G201" s="14"/>
-      <c r="H201" s="14"/>
-      <c r="I201" s="14"/>
-      <c r="J201" s="14"/>
-      <c r="K201" s="14"/>
-      <c r="L201" s="14"/>
-      <c r="M201" s="14"/>
-      <c r="N201" s="14"/>
-      <c r="O201" s="14"/>
-      <c r="P201" s="14"/>
-      <c r="Q201" s="14"/>
       <c r="R201" s="5"/>
     </row>
     <row r="202" spans="2:18">
       <c r="B202" s="4"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="K202" s="14"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="14"/>
-      <c r="N202" s="14"/>
-      <c r="O202" s="14"/>
-      <c r="P202" s="14"/>
-      <c r="Q202" s="14"/>
       <c r="R202" s="5"/>
     </row>
     <row r="203" spans="2:18">
       <c r="B203" s="4"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="14"/>
-      <c r="F203" s="14"/>
-      <c r="G203" s="14"/>
-      <c r="H203" s="14"/>
-      <c r="I203" s="14"/>
-      <c r="J203" s="14"/>
-      <c r="K203" s="14"/>
-      <c r="L203" s="14"/>
-      <c r="M203" s="14"/>
-      <c r="N203" s="14"/>
-      <c r="O203" s="14"/>
-      <c r="P203" s="14"/>
-      <c r="Q203" s="14"/>
       <c r="R203" s="5"/>
     </row>
     <row r="204" spans="2:18">
@@ -4433,4 +3188,931 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9033DB2B-9135-4D68-94D9-C4FB224291BB}">
+  <dimension ref="B3:L132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="T115" sqref="T115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="5"/>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="9"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="3"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="4"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="4"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="5"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="4"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="5"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="5"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="5"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="5"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="4"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="5"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="7"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="3"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="4"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="5"/>
+    </row>
+    <row r="112" spans="2:12">
+      <c r="B112" s="4"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="5"/>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" s="4"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="14"/>
+      <c r="L113" s="5"/>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="B114" s="4"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="5"/>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="B115" s="4"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="5"/>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="B116" s="4"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="5"/>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="B117" s="4"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="14"/>
+      <c r="L117" s="5"/>
+    </row>
+    <row r="118" spans="2:12">
+      <c r="B118" s="4"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="5"/>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" s="4"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="5"/>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="B120" s="4"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="5"/>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="B121" s="4"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="5"/>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="B122" s="4"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
+      <c r="L122" s="5"/>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="B123" s="4"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="14"/>
+      <c r="L123" s="5"/>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="B124" s="4"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="14"/>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="B125" s="4"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="14"/>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="B126" s="4"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="14"/>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="B127" s="4"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="14"/>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="B128" s="4"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="14"/>
+      <c r="L128" s="5"/>
+    </row>
+    <row r="129" spans="2:12">
+      <c r="B129" s="4"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="5"/>
+    </row>
+    <row r="130" spans="2:12">
+      <c r="B130" s="4"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="5"/>
+    </row>
+    <row r="131" spans="2:12">
+      <c r="B131" s="4"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="5"/>
+    </row>
+    <row r="132" spans="2:12">
+      <c r="B132" s="7"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/2.lap-trinh-huong-doi-tuong/2.Property-and-Method.xlsx
+++ b/2.lap-trinh-huong-doi-tuong/2.Property-and-Method.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\java\2.lap-trinh-huong-doi-tuong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30577B84-C691-46C3-83D5-1B1C6FDA1B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA42C10-2198-4F77-BC09-B53DAECE862F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29775" yWindow="1140" windowWidth="26205" windowHeight="13920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29775" yWindow="1140" windowWidth="26205" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
     <sheet name="Getter &amp; setter" sheetId="2" r:id="rId2"/>
     <sheet name="ShowInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="GetAge" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="75">
   <si>
     <t>java_training</t>
     <phoneticPr fontId="1"/>
@@ -962,6 +963,240 @@
   </si>
   <si>
     <t>\t: Phím Tab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>import java.util.Calendar;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public int getAge() {           </t>
+  </si>
+  <si>
+    <t>        Calendar now = Calendar.getInstance();</t>
+  </si>
+  <si>
+    <t>        return now.get(Calendar.YEAR) - this.getBirthday();</t>
+  </si>
+  <si>
+    <t>        System.out.println("Age \t\t:" + this.getAge());</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> không ph</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ả</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i là ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>u trà v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ề</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là ki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ể</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">u </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1127,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1142,8 +1377,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1572,6 +1805,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>420842</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82DE4C90-4923-B201-A2F7-7DF3FBF13316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="781050" y="12887325"/>
+          <a:ext cx="11469842" cy="6457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361107</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DFC4D6-3CFA-45A4-8B61-BE72D319C3C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="20250150"/>
+          <a:ext cx="6742857" cy="5022223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3194,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9033DB2B-9135-4D68-94D9-C4FB224291BB}">
   <dimension ref="B3:L132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="T115" sqref="T115"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="R117" sqref="R117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3291,308 +3617,176 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
       <c r="H25" s="5"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
       <c r="H26" s="5"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
       <c r="H28" s="5"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
       <c r="H29" s="5"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
       <c r="H30" s="5"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
       <c r="H31" s="5"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="2:10">
       <c r="B33" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
       <c r="H33" s="5"/>
     </row>
     <row r="34" spans="2:10">
       <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
       <c r="H34" s="5"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
       <c r="H35" s="5"/>
     </row>
     <row r="36" spans="2:10">
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
       <c r="H36" s="5"/>
     </row>
     <row r="37" spans="2:10">
       <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
       <c r="H37" s="5"/>
     </row>
     <row r="38" spans="2:10">
       <c r="B38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
       <c r="H38" s="5"/>
     </row>
     <row r="39" spans="2:10">
       <c r="B39" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
       <c r="H39" s="5"/>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
       <c r="H40" s="5"/>
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="2:10">
       <c r="B42" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
       <c r="H42" s="5"/>
       <c r="I42" t="s">
         <v>7</v>
@@ -3605,44 +3799,30 @@
       <c r="B43" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:10">
       <c r="B44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="2:10">
       <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:10">
@@ -3671,134 +3851,78 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="4"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="2:7">
       <c r="B79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
       <c r="G79" s="5"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="4"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
       <c r="G80" s="5"/>
     </row>
     <row r="81" spans="2:7">
       <c r="B81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
       <c r="G81" s="5"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" s="4"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
       <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
       <c r="G84" s="5"/>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
       <c r="G85" s="5"/>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
       <c r="G86" s="5"/>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
       <c r="G87" s="5"/>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
       <c r="G88" s="5"/>
     </row>
     <row r="89" spans="2:7">
       <c r="B89" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
       <c r="G89" s="5"/>
     </row>
     <row r="90" spans="2:7">
       <c r="B90" s="4"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
       <c r="G90" s="5"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
       <c r="G91" s="5"/>
     </row>
     <row r="92" spans="2:7">
@@ -3826,275 +3950,86 @@
     </row>
     <row r="111" spans="2:12">
       <c r="B111" s="4"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="2:12">
       <c r="B112" s="4"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="14"/>
       <c r="L112" s="5"/>
     </row>
     <row r="113" spans="2:12">
       <c r="B113" s="4"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="14"/>
-      <c r="K113" s="14"/>
       <c r="L113" s="5"/>
     </row>
     <row r="114" spans="2:12">
       <c r="B114" s="4"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="14"/>
-      <c r="K114" s="14"/>
       <c r="L114" s="5"/>
     </row>
     <row r="115" spans="2:12">
       <c r="B115" s="4"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="14"/>
-      <c r="K115" s="14"/>
       <c r="L115" s="5"/>
     </row>
     <row r="116" spans="2:12">
       <c r="B116" s="4"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="14"/>
-      <c r="K116" s="14"/>
       <c r="L116" s="5"/>
     </row>
     <row r="117" spans="2:12">
       <c r="B117" s="4"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="14"/>
       <c r="L117" s="5"/>
     </row>
     <row r="118" spans="2:12">
       <c r="B118" s="4"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
       <c r="L118" s="5"/>
     </row>
     <row r="119" spans="2:12">
       <c r="B119" s="4"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
       <c r="L119" s="5"/>
     </row>
     <row r="120" spans="2:12">
       <c r="B120" s="4"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="14"/>
       <c r="L120" s="5"/>
     </row>
     <row r="121" spans="2:12">
       <c r="B121" s="4"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
       <c r="L121" s="5"/>
     </row>
     <row r="122" spans="2:12">
       <c r="B122" s="4"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
       <c r="L122" s="5"/>
     </row>
     <row r="123" spans="2:12">
       <c r="B123" s="4"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
       <c r="L123" s="5"/>
     </row>
     <row r="124" spans="2:12">
       <c r="B124" s="4"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
       <c r="L124" s="5"/>
     </row>
     <row r="125" spans="2:12">
       <c r="B125" s="4"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="14"/>
-      <c r="K125" s="14"/>
       <c r="L125" s="5"/>
     </row>
     <row r="126" spans="2:12">
       <c r="B126" s="4"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
       <c r="L126" s="5"/>
     </row>
     <row r="127" spans="2:12">
       <c r="B127" s="4"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
-      <c r="K127" s="14"/>
       <c r="L127" s="5"/>
     </row>
     <row r="128" spans="2:12">
       <c r="B128" s="4"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="2:12">
       <c r="B129" s="4"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="2:12">
       <c r="B130" s="4"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
       <c r="L130" s="5"/>
     </row>
     <row r="131" spans="2:12">
       <c r="B131" s="4"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
       <c r="L131" s="5"/>
     </row>
     <row r="132" spans="2:12">
@@ -4115,4 +4050,481 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2863ABE1-83EE-4BB4-8EA4-EFA5FD797B1E}">
+  <dimension ref="B3:L111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="4"/>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4"/>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4"/>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4"/>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4"/>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="4"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="H41" s="5"/>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="4"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="4"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="4"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="4"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="4"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="4"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="4"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="4"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="4"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="4"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="2:12">
+      <c r="B99" s="4"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="2:12">
+      <c r="B100" s="4"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="2:12">
+      <c r="B101" s="4"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="2:12">
+      <c r="B102" s="4"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="2:12">
+      <c r="B103" s="4"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="2:12">
+      <c r="B104" s="4"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="2:12">
+      <c r="B105" s="4"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="2:12">
+      <c r="B106" s="4"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="2:12">
+      <c r="B107" s="4"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="2:12">
+      <c r="B108" s="4"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="2:12">
+      <c r="B109" s="4"/>
+      <c r="L109" s="5"/>
+    </row>
+    <row r="110" spans="2:12">
+      <c r="B110" s="4"/>
+      <c r="L110" s="5"/>
+    </row>
+    <row r="111" spans="2:12">
+      <c r="B111" s="7"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>